--- a/Experimentelles/Ausgewaehlte_Daten/Gefuege/PEIS/IS_Auswertung_Gefuege.xlsx
+++ b/Experimentelles/Ausgewaehlte_Daten/Gefuege/PEIS/IS_Auswertung_Gefuege.xlsx
@@ -985,14 +985,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="546952776"/>
-        <c:axId val="546953168"/>
+        <c:axId val="247285520"/>
+        <c:axId val="247285912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="546952776"/>
+        <c:axId val="247285520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="40000000"/>
+          <c:max val="10000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1104,16 +1104,17 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="546953168"/>
+        <c:crossAx val="247285912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5000000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="546953168"/>
+        <c:axId val="247285912"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
-          <c:min val="-20000000"/>
+          <c:max val="0"/>
+          <c:min val="-10000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1224,7 +1225,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="546952776"/>
+        <c:crossAx val="247285520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5000000"/>
